--- a/data/trans_dic/P04D$individual-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P04D$individual-Provincia-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.3509107654262881</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.3413691900441144</v>
+        <v>0.3413691900441145</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.2460583331938949</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.183449137446984</v>
+        <v>0.1840491024150915</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2982672686980259</v>
+        <v>0.2891887049673514</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2925251896103718</v>
+        <v>0.2891923957399958</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1995744899384177</v>
+        <v>0.1966683093867758</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3547341424266316</v>
+        <v>0.3482283355618616</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2660185538259719</v>
+        <v>0.2656706742796976</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2022373663170772</v>
+        <v>0.2007929937350584</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3392007502467297</v>
+        <v>0.3385937551635024</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.291802024881793</v>
+        <v>0.2920559606412216</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2860226705614586</v>
+        <v>0.2847924821762487</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4066106551256575</v>
+        <v>0.4053217555812694</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4000410442452262</v>
+        <v>0.404757040069144</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3051781103916021</v>
+        <v>0.3012475105906551</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4627828838928101</v>
+        <v>0.4613421059965422</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3466606796462043</v>
+        <v>0.3493989719326177</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2733680678789863</v>
+        <v>0.2768314472795038</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4189513235340787</v>
+        <v>0.4192973618317926</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3611838815964415</v>
+        <v>0.3603877143190757</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1745215493365044</v>
+        <v>0.1717989033290776</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3266997638329493</v>
+        <v>0.3328198501991206</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01740260888273222</v>
+        <v>0.01614649112705805</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1601168870759621</v>
+        <v>0.1575708987141614</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3842101280947617</v>
+        <v>0.3889141486872261</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01758765709362394</v>
+        <v>0.01812994268374103</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1753006663055895</v>
+        <v>0.1758278494322499</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3738135499198867</v>
+        <v>0.3742486590096863</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02081401166240592</v>
+        <v>0.02071289827592188</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2521208912876707</v>
+        <v>0.2500853424277404</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4166686965458879</v>
+        <v>0.4176416537779886</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05833686273094753</v>
+        <v>0.05633348726746364</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2267317649234163</v>
+        <v>0.2273966488804566</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4747237402856893</v>
+        <v>0.4761947405084211</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04327022644541407</v>
+        <v>0.04347769697560535</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.227290193887448</v>
+        <v>0.2247269983243041</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4372313024673474</v>
+        <v>0.4368129900168789</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04266544111568741</v>
+        <v>0.04399245174813585</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1790393065694683</v>
+        <v>0.1768524183530034</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1149938734330137</v>
+        <v>0.1122138809624569</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1202757977419894</v>
+        <v>0.1223460493175016</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1469969267229839</v>
+        <v>0.149196657865177</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1229494717189598</v>
+        <v>0.124004565766322</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09569410553883934</v>
+        <v>0.09963382400483282</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1718300176793818</v>
+        <v>0.1738109610391672</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1304068647911025</v>
+        <v>0.1334588142993837</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1160883271100212</v>
+        <v>0.1176367444983077</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2701441946730738</v>
+        <v>0.2728610090365663</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.193962347350896</v>
+        <v>0.2005970605456674</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1960490142660585</v>
+        <v>0.2051363521922593</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2344506253056228</v>
+        <v>0.2330398281853047</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1989315903730914</v>
+        <v>0.204209520549663</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1583546252580313</v>
+        <v>0.1582086617275432</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2319180254396224</v>
+        <v>0.2387057924178531</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1858568806974907</v>
+        <v>0.1874013619362341</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1656305054033412</v>
+        <v>0.1670578739258194</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.2963639180189488</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4363660382631321</v>
+        <v>0.436366038263132</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.3168780231726074</v>
@@ -982,7 +982,7 @@
         <v>0.2773232163670775</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.3631200475323945</v>
+        <v>0.3631200475323946</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.3216295163940964</v>
@@ -991,7 +991,7 @@
         <v>0.286625827166895</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.3976459380839156</v>
+        <v>0.3976459380839157</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2749687737709792</v>
+        <v>0.2751905022195989</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.249650872234227</v>
+        <v>0.2477864597009768</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3710900794928967</v>
+        <v>0.3725908280729024</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2691712164232096</v>
+        <v>0.2715910403327978</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2351329760247698</v>
+        <v>0.2329889020506869</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3184768453037033</v>
+        <v>0.3174059434419936</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2896057869451952</v>
+        <v>0.2887034346024682</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2562753616365875</v>
+        <v>0.2499659993394975</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3584970396740173</v>
+        <v>0.3571854772268778</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3793627526579976</v>
+        <v>0.3746464212687156</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3482243703061195</v>
+        <v>0.3432738970856531</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5031470155839699</v>
+        <v>0.5099167639092071</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3643170138151649</v>
+        <v>0.367740199081701</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3294381105471531</v>
+        <v>0.3243189740947504</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4104123116726743</v>
+        <v>0.4129069299058578</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3603146669736433</v>
+        <v>0.3567754120728263</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3214858037303554</v>
+        <v>0.3207867828332634</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4362197057078273</v>
+        <v>0.4353642964233114</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1580763293080591</v>
+        <v>0.1670649397621703</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05493146356138767</v>
+        <v>0.05925372533169582</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2358398039178506</v>
+        <v>0.2310166712488034</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05475639231438245</v>
+        <v>0.05458990480959319</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01024488967474819</v>
+        <v>0.01105787151991586</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2122637731251602</v>
+        <v>0.2130542229376583</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06640877572443019</v>
+        <v>0.06320345410019641</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.00668427663851295</v>
+        <v>0.006580412567038931</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2822991285988373</v>
+        <v>0.2855679142729666</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1345635399624302</v>
+        <v>0.1402874039333395</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.018302861118599</v>
+        <v>0.0216447579818198</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3631264862749476</v>
+        <v>0.3574728918997187</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1279621375989113</v>
+        <v>0.1268462720371035</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03405683253533977</v>
+        <v>0.03525311545230779</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.297727463229367</v>
+        <v>0.3033899334385816</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1168984933115953</v>
+        <v>0.1212126195756926</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02173721183694208</v>
+        <v>0.0211260438623084</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1200,7 @@
         <v>0.3142456225679273</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.1336489728176906</v>
+        <v>0.1336489728176905</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.250879046819392</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.207556792002473</v>
+        <v>0.2053441947559607</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2053825411614366</v>
+        <v>0.200142190687724</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1125445696651085</v>
+        <v>0.1142282284973104</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1935617802129533</v>
+        <v>0.1852706748740541</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2601659634008767</v>
+        <v>0.2636284131626942</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1012684278253706</v>
+        <v>0.1020671754949752</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2144591567512526</v>
+        <v>0.2161193680002055</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2483800587579986</v>
+        <v>0.2483969655208795</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1170181069206121</v>
+        <v>0.1203112663998472</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3164472236792857</v>
+        <v>0.3212974816251976</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3101661486344702</v>
+        <v>0.3088258204143355</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1893906278927159</v>
+        <v>0.1893449056282846</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3006219419779725</v>
+        <v>0.2954749104000691</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3723926212475932</v>
+        <v>0.3746447457784062</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1730960839770052</v>
+        <v>0.1719406011409647</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2861105761128431</v>
+        <v>0.2906714388092412</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3301236296958635</v>
+        <v>0.3246554500883509</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1676456207063332</v>
+        <v>0.1712792937803849</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.212225622345099</v>
+        <v>0.2120798933470506</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.215654983008838</v>
+        <v>0.2168752713345166</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2489575479905743</v>
+        <v>0.2498190329045103</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2086026579896659</v>
+        <v>0.2123963100342214</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2287473288514836</v>
+        <v>0.2269068134841085</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2615740281642292</v>
+        <v>0.2617272825635663</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2218872502085765</v>
+        <v>0.2199494949874159</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2329223605167704</v>
+        <v>0.2307713815384299</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2664971881717825</v>
+        <v>0.2659698749407465</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2852378351595472</v>
+        <v>0.2815462976577353</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2857768671830671</v>
+        <v>0.2868947694171985</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3278110574068664</v>
+        <v>0.3302465259085879</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2757920361563839</v>
+        <v>0.2803952475772819</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2966731001998378</v>
+        <v>0.2967552687262156</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3249130461335065</v>
+        <v>0.3225356636405308</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2701921651156328</v>
+        <v>0.2688714298624341</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2821075213632545</v>
+        <v>0.2820045844035458</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3147993873509788</v>
+        <v>0.3157570391435379</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4353277219947048</v>
+        <v>0.4373767886514155</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3127228205808906</v>
+        <v>0.3136762459955272</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0401561173986741</v>
+        <v>0.0400800951607409</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3837115670327916</v>
+        <v>0.3887050299784321</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3299440320450843</v>
+        <v>0.3301446199407048</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04461136807168692</v>
+        <v>0.04480915093984745</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.4228788799403366</v>
+        <v>0.4228264514462928</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3323322158946522</v>
+        <v>0.3337091281081022</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.04657401832949368</v>
+        <v>0.04711926747321279</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5122216046893133</v>
+        <v>0.5145345628644131</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3801540348428275</v>
+        <v>0.3817483749629278</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.07812287737347036</v>
+        <v>0.07742158004211469</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4595626887175961</v>
+        <v>0.4574870766898703</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.4032964606286183</v>
+        <v>0.4001190117833726</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.07080651152313036</v>
+        <v>0.07210674197386102</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4736045927053933</v>
+        <v>0.4730653853920829</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3806391098509916</v>
+        <v>0.3812337821640865</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.06805997429475723</v>
+        <v>0.06941446775694564</v>
       </c>
     </row>
     <row r="28">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2823524192327619</v>
+        <v>0.2808621320412155</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2708054049382126</v>
+        <v>0.2702270509958374</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1636197280196531</v>
+        <v>0.1640358007449525</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2675607382729964</v>
+        <v>0.267565226392894</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2933972863561582</v>
+        <v>0.2914078286244895</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1554664413896637</v>
+        <v>0.1554331194457271</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2794285575917974</v>
+        <v>0.2780028037711394</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.286728431189394</v>
+        <v>0.2864005948393025</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1634675967132323</v>
+        <v>0.1629943084006734</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.314546405534818</v>
+        <v>0.3133464263353175</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3012445716317744</v>
+        <v>0.3026697184635918</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.193827420088655</v>
+        <v>0.1945736950907113</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2991234341391248</v>
+        <v>0.2990286090334428</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3248115886970461</v>
+        <v>0.3243941583316483</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1780722872836013</v>
+        <v>0.1774817292735832</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3010572024126567</v>
+        <v>0.3013168379080539</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3091607415808596</v>
+        <v>0.3094146639365757</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1825422725923883</v>
+        <v>0.1816304926372919</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>53739</v>
+        <v>53915</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>87619</v>
+        <v>84952</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>93270</v>
+        <v>92208</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>57102</v>
+        <v>56271</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>102413</v>
+        <v>100535</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>84078</v>
+        <v>83968</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>117107</v>
+        <v>116271</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>197572</v>
+        <v>197219</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>185267</v>
+        <v>185428</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>83787</v>
+        <v>83427</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>119446</v>
+        <v>119068</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>127551</v>
+        <v>129055</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>87318</v>
+        <v>86193</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>133607</v>
+        <v>133191</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>109566</v>
+        <v>110431</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>158296</v>
+        <v>160302</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>244024</v>
+        <v>244226</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>229318</v>
+        <v>228812</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>87889</v>
+        <v>86518</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>164191</v>
+        <v>167267</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>9235</v>
+        <v>8568</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>83526</v>
+        <v>82198</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>200974</v>
+        <v>203435</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>9612</v>
+        <v>9908</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>179728</v>
+        <v>180268</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>383405</v>
+        <v>383852</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>22420</v>
+        <v>22311</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>126968</v>
+        <v>125943</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>209407</v>
+        <v>209896</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>30956</v>
+        <v>29893</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>118276</v>
+        <v>118623</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>248320</v>
+        <v>249090</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>23647</v>
+        <v>23760</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>233030</v>
+        <v>230402</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>448450</v>
+        <v>448021</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>45957</v>
+        <v>47386</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>58017</v>
+        <v>57308</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>36633</v>
+        <v>35747</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>37876</v>
+        <v>38528</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>50129</v>
+        <v>50879</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>41349</v>
+        <v>41704</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>33987</v>
+        <v>35386</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>114278</v>
+        <v>115596</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>85400</v>
+        <v>87399</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>77788</v>
+        <v>78825</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>87539</v>
+        <v>88420</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>61790</v>
+        <v>63903</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>61737</v>
+        <v>64599</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>79952</v>
+        <v>79471</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>66902</v>
+        <v>68677</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>56242</v>
+        <v>56190</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>154241</v>
+        <v>158755</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>121713</v>
+        <v>122724</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>110984</v>
+        <v>111941</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>102568</v>
+        <v>102651</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>92362</v>
+        <v>91672</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>138470</v>
+        <v>139030</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>104694</v>
+        <v>105636</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>91063</v>
+        <v>90233</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>133275</v>
+        <v>132826</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>220670</v>
+        <v>219983</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>194064</v>
+        <v>189286</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>283793</v>
+        <v>282755</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>141509</v>
+        <v>139749</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>128830</v>
+        <v>126999</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>187747</v>
+        <v>190273</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>141701</v>
+        <v>143033</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>127586</v>
+        <v>125603</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>171747</v>
+        <v>172791</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>274548</v>
+        <v>271851</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>243444</v>
+        <v>242915</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>345320</v>
+        <v>344643</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>33610</v>
+        <v>35521</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>11603</v>
+        <v>12516</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>51788</v>
+        <v>50729</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>11969</v>
+        <v>11933</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2341</v>
+        <v>2527</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>91742</v>
+        <v>92084</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>28543</v>
+        <v>27165</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2902</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>60022</v>
+        <v>60717</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>28423</v>
+        <v>29632</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3764</v>
+        <v>4452</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>79739</v>
+        <v>78498</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>27971</v>
+        <v>27727</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>7781</v>
+        <v>8055</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>128680</v>
+        <v>131128</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>50244</v>
+        <v>52098</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>9437</v>
+        <v>9172</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>56867</v>
+        <v>56260</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>54041</v>
+        <v>52662</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>30467</v>
+        <v>30922</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>54015</v>
+        <v>51701</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>71055</v>
+        <v>72001</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>26710</v>
+        <v>26920</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>118604</v>
+        <v>119522</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>133191</v>
+        <v>133200</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>62541</v>
+        <v>64301</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>86701</v>
+        <v>88029</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>81612</v>
+        <v>81259</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>51269</v>
+        <v>51257</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>83891</v>
+        <v>82455</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>101706</v>
+        <v>102321</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>45654</v>
+        <v>45349</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>158230</v>
+        <v>160753</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>177025</v>
+        <v>174093</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>89599</v>
+        <v>91541</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>140661</v>
+        <v>140564</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>141590</v>
+        <v>142391</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>177344</v>
+        <v>177957</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>144740</v>
+        <v>147372</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>158132</v>
+        <v>156859</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>200858</v>
+        <v>200976</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>301021</v>
+        <v>298393</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>313945</v>
+        <v>311046</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>394476</v>
+        <v>393696</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>189052</v>
+        <v>186606</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>187629</v>
+        <v>188363</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>233515</v>
+        <v>235249</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>191359</v>
+        <v>194553</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>205088</v>
+        <v>205145</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>249495</v>
+        <v>247669</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>366554</v>
+        <v>364762</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>380239</v>
+        <v>380100</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>465975</v>
+        <v>467392</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>338117</v>
+        <v>339709</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>243481</v>
+        <v>244223</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>31953</v>
+        <v>31892</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>316122</v>
+        <v>320236</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>272589</v>
+        <v>272755</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>37087</v>
+        <v>37251</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>676838</v>
+        <v>676754</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>533310</v>
+        <v>535520</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>75778</v>
+        <v>76665</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>397840</v>
+        <v>399637</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>295981</v>
+        <v>297223</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>62164</v>
+        <v>61606</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>378612</v>
+        <v>376902</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>333190</v>
+        <v>330565</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>58864</v>
+        <v>59945</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>758027</v>
+        <v>757164</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>610831</v>
+        <v>611785</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>110737</v>
+        <v>112941</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>965556</v>
+        <v>960460</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>919208</v>
+        <v>917245</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>576266</v>
+        <v>577731</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>950938</v>
+        <v>950954</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1039959</v>
+        <v>1032907</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>579523</v>
+        <v>579399</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1948675</v>
+        <v>1938732</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1989578</v>
+        <v>1987303</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1185079</v>
+        <v>1181647</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1075649</v>
+        <v>1071546</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1022530</v>
+        <v>1027367</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>682656</v>
+        <v>685285</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1063115</v>
+        <v>1062778</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1151308</v>
+        <v>1149829</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>663790</v>
+        <v>661589</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2099509</v>
+        <v>2101319</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>2145233</v>
+        <v>2146995</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1323363</v>
+        <v>1316753</v>
       </c>
     </row>
     <row r="40">
